--- a/구단 정보.xlsx
+++ b/구단 정보.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1223w\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1223w\Desktop\　　　\공모전\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -26,10 +26,519 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="233">
   <x:si>
+    <x:t>https://www.koreabaseball.com/Schedule/Weather.aspx#none</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.kleague.com/schedule.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기 수원시 장안구 경수대로 893 수원종합운동장(주경기장)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>경기도 성남시 분당구 탄천로 215</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>대구광역시 북구 고성로 191</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>인천광역시 중구 참외전로 246</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>경기도 화성시 향남읍 향남로 470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안산 OK금융그룹 읏맨프로배구단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주 페퍼저축은행 AI 페퍼스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 미추홀구 매소홀로 618</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">경상북도 김천시 운동장길 1 </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>경남 창원시 마산회원구 삼호로 63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원도 춘천시 스포츠타운길 136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원도 강릉시 종합운동장길 69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기 안산시 상록구 용신로 422</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>서울특별시 마포구 월드컵로 240</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>서울 우리카드 우리WON 프로배구단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ko.wikipedia.org/wiki/%EB%8C%80%ED%95%9C%EB%AF%BC%EA%B5%AD%EC%9D%98_%EC%95%BC%EA%B5%AC_%EA%B2%BD%EA%B8%B0%EC%9E%A5_%EB%AA%A9%EB%A1%9D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://namu.wiki/w/V-%EB%A6%AC%EA%B7%B8#s-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.koreabaseball.com/Schedule/Schedule.aspx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사직</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잠실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팀명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K리그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연고지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키움</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SSG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈구장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의정부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천안</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롯데</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두산</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NC </x:t>
+  </x:si>
+  <x:si>
+    <x:t>문학</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">KT </x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈구단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고척</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>⚽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V리그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남자부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>🏐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>⚾</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여자부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KIA 타이거즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 유나이티드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 한국전력 빅스톰</x:t>
+  </x:si>
+  <x:si>
     <x:t>개막을 안했으니까</x:t>
   </x:si>
   <x:si>
+    <x:t>야구(KBO리그)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DGB대구은행파크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 월드컵 경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 종합 운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄천 종합 운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강릉 종합 운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 대한항공 점보스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 vs 포항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전주 월드컵 경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 월드컵 경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주 유나이티드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GS 칼텍스 KIXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대건설 힐스테이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 축구 전용경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산 문수 축구경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주 월드컵 경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김천 종합 운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성남 탄천종합운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주 기아챔피언스필드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 KT위즈파크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산 문수축구경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 SSG랜더스필드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.05.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의정부실내체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대구 삼성라이온즈파크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V리그 연고지 지도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K리그 연고지 지도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천삼산월드체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전 KGC인삼공사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>춘천 송암 스포츠타운</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김천 종합운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 종합운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 축구전용경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전주 월드컵경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 월드컵경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주 월드컵경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 월드컵경기장</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://www.google.com/maps/d/viewer?mid=1ftIWh96Lq9S2A9SjdxC6bv3fns09h4vR&amp;ll=36.19634207062661%2C127.1627224454497&amp;z=7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페퍼저축은행 AI 페퍼스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의정부 KB손해보험 스타즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국도로공사 하이패스 배구단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전 한화생명이글스파크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흥국생명 핑크스파이더스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화성 IBK기업은행 알토스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산 동래구 사직로 45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전 삼성화재 블루팡스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천안 현대캐피탈 스카이워커스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전 중구 대종로 373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KBO 리그 연고지 지도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 흥국생명 핑크스파이더스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 종합운동장 야구장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주 서구 금화로 278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 중구 동호로 241</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -42,400 +551,13 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>https://www.koreabaseball.com/Schedule/Weather.aspx#none</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 우리카드 우리WON 프로배구단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주 페퍼저축은행 AI 페퍼스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기 안산시 상록구 용신로 422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기도 화성시 향남읍 향남로 470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 미추홀구 매소홀로 618</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남 창원시 마산회원구 삼호로 63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안산 OK금융그룹 읏맨프로배구단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://namu.wiki/w/V-%EB%A6%AC%EA%B7%B8#s-5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.koreabaseball.com/Schedule/Schedule.aspx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기 수원시 장안구 경수대로 893 수원종합운동장(주경기장)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.kleague.com/schedule.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야구(KBO리그)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KIA 타이거즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 유나이티드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 한국전력 빅스톰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주 유나이티드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 대한항공 점보스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GS 칼텍스 KIXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현대건설 힐스테이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 vs 포항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 월드컵 경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 종합 운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전주 월드컵 경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탄천 종합 운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강릉 종합 운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 월드컵 경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DGB대구은행파크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 축구 전용경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주 월드컵 경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산 문수 축구경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김천 종합 운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.05.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성남 탄천종합운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산 문수축구경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주 기아챔피언스필드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 KT위즈파크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 SSG랜더스필드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구 삼성라이온즈파크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의정부실내체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V리그 연고지 지도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전 KGC인삼공사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K리그 연고지 지도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천삼산월드체육관</x:t>
+    <x:t>경기 의정부시 체육로 90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 계양구 봉오대로 855</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.kleague.com/external/map.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ko.wikipedia.org/wiki/%EB%8C%80%ED%95%9C%EB%AF%BC%EA%B5%AD%EC%9D%98_%EC%95%BC%EA%B5%AC_%EA%B2%BD%EA%B8%B0%EC%9E%A5_%EB%AA%A9%EB%A1%9D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연고지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팀명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사직</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잠실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K리그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈구장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈구단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>⚽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롯데</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KT</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">NC </x:t>
-  </x:si>
-  <x:si>
-    <x:t>관주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V리그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남자부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>⚾</x:t>
-  </x:si>
-  <x:si>
-    <x:t>🏐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여자부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SSG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고척</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한화</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">KT </x:t>
-  </x:si>
-  <x:si>
-    <x:t>키움</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 구로구 경인로 430 고척스카이돔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주 북구 서림로 10 무등종합경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북 김천시 운동장길 1 김천종합운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전 중구 대종로 373 한밭종합운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 부평구 체육관로 60 삼산월드체육관</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -444,266 +566,17 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>경상북도 포항시 남구 동해안로6213번길 20</x:t>
+      <x:t>전라북도 전주시 덕진구 기린대로 1055</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>서울 중구 동호로 241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기 의정부시 체육로 90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주 서구 금화로 278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 계양구 봉오대로 855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화성 IBK기업은행 알토스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 흥국생명 핑크스파이더스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 종합운동장 야구장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전 한화생명이글스파크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산 동래구 사직로 45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전 삼성화재 블루팡스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천안 현대캐피탈 스카이워커스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전 중구 대종로 373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KBO 리그 연고지 지도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흥국생명 핑크스파이더스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의정부 KB손해보험 스타즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국도로공사 하이패스 배구단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>페퍼저축은행 AI 페퍼스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBK 기업은행 알토스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KGC인삼공사 프로배구단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 현대건설 힐스테이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GS칼텍스 서울 KIXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 우리카드 우리WON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안산 OK금융그룹 읏맨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김천 한국도로공사 하이패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구 FC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 FC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성남 FC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SSG 랜더스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FC 서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포항 스틸러스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산 현대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키움 히어로즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롯데 자이언츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NC 다이노스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성 라이온즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K리그1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원 FC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 트윈스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KT 위즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두산 베어스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한화 이글스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KBO리그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창원 NC파크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사직 야구장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고척 스카이돔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포항 스틸야드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우천취소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로 야구장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계양체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(지도)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.15(일)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기매치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구단 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원FC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매치센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도로명 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원실내체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상록수체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>염주종합체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>축구(K리그)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배구(V리그)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김천실내체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화성실내체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>못찾겠다꾀꼬리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충무체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장충체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유관순체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충남 천안시 서북구 번영로 208 종합운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 송파구 올림픽로 19-2 서울종합운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구 수성구 야구전설로 1 대구삼성라이온즈파크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의정부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천안</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김천 상무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 삼성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북 현대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강릉종합운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>춘천 송암 스포츠타운</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김천 종합운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 종합운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수원 월드컵경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 축구전용경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전주 월드컵경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주 월드컵경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 월드컵경기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원도 춘천시 스포츠타운길 136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원도 강릉시 종합운동장길 69</x:t>
+    <x:t>서울 구로구 경인로 430 고척스카이돔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주 북구 서림로 10 무등종합경기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전 중구 대종로 373 한밭종합운동장</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -716,6 +589,22 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>경북 김천시 운동장길 1 김천종합운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 부평구 체육관로 60 삼산월드체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>제주특별자치도 서귀포시 월드컵로 33</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="맑은 고딕"/>
@@ -727,72 +616,15 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>전라북도 전주시 덕진구 기린대로 1055</x:t>
+      <x:t>경기도</x:t>
     </x:r>
-  </x:si>
-  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="맑은 고딕"/>
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>제주특별자치도 서귀포시 월드컵로 33</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">경상북도 김천시 운동장길 1 </x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>서울특별시 마포구 월드컵로 240</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인천광역시 중구 참외전로 246</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>대구광역시 북구 고성로 191</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>경기도 성남시 분당구 탄천로 215</x:t>
+      <x:t xml:space="preserve"> 수원시 장안구 경수대로 893</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -805,129 +637,8 @@
       <x:t>경기도</x:t>
     </x:r>
     <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Arial"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Arial"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
       <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>수원시</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Arial"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Arial"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>장안구</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Arial"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Arial"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>경수대로</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Arial"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Arial"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> 893</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>경기도</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
+        <x:rFont val="Arial"/>
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
@@ -943,7 +654,7 @@
     </x:r>
     <x:r>
       <x:rPr>
-        <x:rFont val="맑은 고딕"/>
+        <x:rFont val="Arial"/>
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
@@ -959,7 +670,7 @@
     </x:r>
     <x:r>
       <x:rPr>
-        <x:rFont val="맑은 고딕"/>
+        <x:rFont val="Arial"/>
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
@@ -975,12 +686,193 @@
     </x:r>
     <x:r>
       <x:rPr>
-        <x:rFont val="맑은 고딕"/>
+        <x:rFont val="Arial"/>
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
       <x:t xml:space="preserve"> 893</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>FC 서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포항 스틸러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롯데 자이언츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두산 베어스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원 FC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 위즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창원 NC파크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K리그1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한화 이글스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산 현대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키움 히어로즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성 라이온즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KBO리그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 FC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사직 야구장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 트윈스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SSG 랜더스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대구 FC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NC 다이노스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성남 FC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북 현대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축구(K리그)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(지도)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.15(일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원FC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원실내체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>염주종합체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배구(V리그)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충무체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고척 스카이돔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김천 상무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구단 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매치센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 삼성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우천취소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장충체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계양체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기매치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상록수체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포항 스틸야드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유관순체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김천실내체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강릉종합운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로 야구장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도로명 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화성실내체육관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>못찾겠다꾀꼬리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 송파구 올림픽로 19-2 서울종합운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>경상북도 포항시 남구 동해안로6213번길 20</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>대구 수성구 야구전설로 1 대구삼성라이온즈파크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충남 천안시 서북구 번영로 208 종합운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KGC인삼공사 프로배구단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBK 기업은행 알토스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GS칼텍스 서울 KIXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김천 한국도로공사 하이패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수원 현대건설 힐스테이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 우리카드 우리WON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안산 OK금융그룹 읏맨</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1038,26 +930,11 @@
       <x:sz val="11"/>
       <x:color rgb="ffff0000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1543,13 +1420,27 @@
       <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color auto="1"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -1560,7 +1451,7 @@
       <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -1571,27 +1462,13 @@
       <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -1863,366 +1740,12 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2248,6 +1771,360 @@
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2257,7 +2134,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2637,8 +2514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10044545" y="2441863"/>
-          <a:ext cx="2216727" cy="640772"/>
+          <a:off x="10044545" y="2459181"/>
+          <a:ext cx="2216727" cy="623454"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3014,7 +2891,7 @@
   <x:dimension ref="B1:K22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="N2" activeCellId="0" sqref="N2:N2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -3033,7 +2910,7 @@
   <x:sheetData>
     <x:row r="1" spans="3:11" ht="23.5">
       <x:c r="C1" s="5" t="s">
-        <x:v>188</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D1" s="25"/>
       <x:c r="E1" s="5"/>
@@ -3046,70 +2923,70 @@
     </x:row>
     <x:row r="3" spans="3:11" ht="20.64999999999999857891">
       <x:c r="C3" s="42" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D3" s="41"/>
-      <x:c r="E3" s="46" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F3" s="46"/>
+      <x:c r="E3" s="53" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F3" s="53"/>
       <x:c r="G3" s="41"/>
-      <x:c r="H3" s="46" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="I3" s="46"/>
-      <x:c r="J3" s="46"/>
-      <x:c r="K3" s="46"/>
+      <x:c r="H3" s="53" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="I3" s="53"/>
+      <x:c r="J3" s="53"/>
+      <x:c r="K3" s="53"/>
     </x:row>
     <x:row r="4" spans="3:11">
       <x:c r="C4" s="40" t="s">
-        <x:v>100</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E4" s="40" t="s">
-        <x:v>99</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="40" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H4" s="66" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="47" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="K4" s="47"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H4" s="61" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I4" s="62"/>
+      <x:c r="J4" s="56" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K4" s="56"/>
     </x:row>
     <x:row r="5" spans="2:11">
       <x:c r="B5" s="1">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D5" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="4" t="s">
-        <x:v>174</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G5" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H5" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J5" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:11">
@@ -3117,31 +2994,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>208</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D6" s="26">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G6" s="26">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I6" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J6" s="4" t="s">
-        <x:v>153</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="K6" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:11">
@@ -3149,31 +3026,31 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>160</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D7" s="26">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G7" s="26">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J7" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="K7" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:11">
@@ -3181,31 +3058,31 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D8" s="26">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G8" s="26">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I8" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J8" s="4" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="I8" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="J8" s="4" t="s">
-        <x:v>152</x:v>
-      </x:c>
       <x:c r="K8" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:11">
@@ -3213,31 +3090,31 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D9" s="26">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G9" s="26">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I9" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J9" s="4" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="K9" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:11">
@@ -3245,31 +3122,31 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D10" s="26">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G10" s="26">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I10" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J10" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K10" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:11">
@@ -3277,31 +3154,31 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D11" s="26">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G11" s="26">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="4" t="s">
-        <x:v>146</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I11" s="3" t="s">
-        <x:v>207</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J11" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K11" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:6">
@@ -3309,16 +3186,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D12" s="26">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:8" ht="17.80000000000000071054">
@@ -3326,19 +3203,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>166</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D13" s="26">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E13" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H13" s="44" t="s">
-        <x:v>68</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:8">
@@ -3346,19 +3223,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D14" s="26">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E14" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H14" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:3">
@@ -3366,7 +3243,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>210</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:3">
@@ -3374,7 +3251,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="3:11" ht="23.5">
@@ -3390,10 +3267,10 @@
     </x:row>
     <x:row r="22" spans="2:8" ht="17.80000000000000071054">
       <x:c r="B22" s="43" t="s">
-        <x:v>70</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H22" s="44" t="s">
-        <x:v>148</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3403,7 +3280,7 @@
     <x:mergeCell ref="H3:K3"/>
     <x:mergeCell ref="H4:I4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:legacyDrawing r:id="rId1"/>
   <x:oleObjects>
@@ -3459,11 +3336,11 @@
     </x:row>
     <x:row r="4" spans="2:14">
       <x:c r="B4" s="18"/>
-      <x:c r="C4" s="48"/>
-      <x:c r="D4" s="49"/>
-      <x:c r="E4" s="49"/>
-      <x:c r="F4" s="49"/>
-      <x:c r="G4" s="50"/>
+      <x:c r="C4" s="54"/>
+      <x:c r="D4" s="55"/>
+      <x:c r="E4" s="55"/>
+      <x:c r="F4" s="55"/>
+      <x:c r="G4" s="57"/>
       <x:c r="H4" s="10"/>
       <x:c r="I4" s="6"/>
       <x:c r="J4" s="7"/>
@@ -3474,11 +3351,11 @@
     </x:row>
     <x:row r="5" spans="2:14">
       <x:c r="B5" s="18"/>
-      <x:c r="C5" s="51"/>
-      <x:c r="D5" s="52"/>
-      <x:c r="E5" s="52"/>
-      <x:c r="F5" s="52"/>
-      <x:c r="G5" s="53"/>
+      <x:c r="C5" s="58"/>
+      <x:c r="D5" s="59"/>
+      <x:c r="E5" s="59"/>
+      <x:c r="F5" s="59"/>
+      <x:c r="G5" s="60"/>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="9"/>
       <x:c r="M5" s="11"/>
@@ -3486,32 +3363,32 @@
     </x:row>
     <x:row r="6" spans="2:14" ht="17.80000000000000071054">
       <x:c r="B6" s="18"/>
-      <x:c r="C6" s="51"/>
-      <x:c r="D6" s="52"/>
-      <x:c r="E6" s="52"/>
-      <x:c r="F6" s="52"/>
-      <x:c r="G6" s="53"/>
+      <x:c r="C6" s="58"/>
+      <x:c r="D6" s="59"/>
+      <x:c r="E6" s="59"/>
+      <x:c r="F6" s="59"/>
+      <x:c r="G6" s="60"/>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="9"/>
       <x:c r="J6" s="27" t="s">
-        <x:v>88</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K6" s="28" t="s">
-        <x:v>186</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="L6" s="29" t="s">
-        <x:v>91</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M6" s="11"/>
       <x:c r="N6" s="19"/>
     </x:row>
     <x:row r="7" spans="2:14" ht="17.80000000000000071054">
       <x:c r="B7" s="18"/>
-      <x:c r="C7" s="51"/>
-      <x:c r="D7" s="52"/>
-      <x:c r="E7" s="52"/>
-      <x:c r="F7" s="52"/>
-      <x:c r="G7" s="53"/>
+      <x:c r="C7" s="58"/>
+      <x:c r="D7" s="59"/>
+      <x:c r="E7" s="59"/>
+      <x:c r="F7" s="59"/>
+      <x:c r="G7" s="60"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="9"/>
       <x:c r="J7" s="30"/>
@@ -3522,11 +3399,11 @@
     </x:row>
     <x:row r="8" spans="2:14" ht="17.80000000000000071054">
       <x:c r="B8" s="18"/>
-      <x:c r="C8" s="51"/>
-      <x:c r="D8" s="52"/>
-      <x:c r="E8" s="52"/>
-      <x:c r="F8" s="52"/>
-      <x:c r="G8" s="53"/>
+      <x:c r="C8" s="58"/>
+      <x:c r="D8" s="59"/>
+      <x:c r="E8" s="59"/>
+      <x:c r="F8" s="59"/>
+      <x:c r="G8" s="60"/>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="9"/>
       <x:c r="J8" s="30"/>
@@ -3537,30 +3414,30 @@
     </x:row>
     <x:row r="9" spans="2:14" ht="17.80000000000000071054">
       <x:c r="B9" s="18"/>
-      <x:c r="C9" s="51"/>
-      <x:c r="D9" s="52"/>
-      <x:c r="E9" s="52"/>
-      <x:c r="F9" s="52"/>
-      <x:c r="G9" s="53"/>
+      <x:c r="C9" s="58"/>
+      <x:c r="D9" s="59"/>
+      <x:c r="E9" s="59"/>
+      <x:c r="F9" s="59"/>
+      <x:c r="G9" s="60"/>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="9"/>
       <x:c r="J9" s="31">
         <x:v>0.79166666666666663</x:v>
       </x:c>
-      <x:c r="K9" s="57" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L9" s="57"/>
+      <x:c r="K9" s="66" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="L9" s="66"/>
       <x:c r="M9" s="11"/>
       <x:c r="N9" s="19"/>
     </x:row>
     <x:row r="10" spans="2:14">
       <x:c r="B10" s="18"/>
-      <x:c r="C10" s="51"/>
-      <x:c r="D10" s="52"/>
-      <x:c r="E10" s="52"/>
-      <x:c r="F10" s="52"/>
-      <x:c r="G10" s="53"/>
+      <x:c r="C10" s="58"/>
+      <x:c r="D10" s="59"/>
+      <x:c r="E10" s="59"/>
+      <x:c r="F10" s="59"/>
+      <x:c r="G10" s="60"/>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="9"/>
       <x:c r="J10" s="10"/>
@@ -3571,11 +3448,11 @@
     </x:row>
     <x:row r="11" spans="2:14">
       <x:c r="B11" s="18"/>
-      <x:c r="C11" s="51"/>
-      <x:c r="D11" s="52"/>
-      <x:c r="E11" s="52"/>
-      <x:c r="F11" s="52"/>
-      <x:c r="G11" s="53"/>
+      <x:c r="C11" s="58"/>
+      <x:c r="D11" s="59"/>
+      <x:c r="E11" s="59"/>
+      <x:c r="F11" s="59"/>
+      <x:c r="G11" s="60"/>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="9"/>
       <x:c r="J11" s="10"/>
@@ -3586,11 +3463,11 @@
     </x:row>
     <x:row r="12" spans="2:14">
       <x:c r="B12" s="18"/>
-      <x:c r="C12" s="51"/>
-      <x:c r="D12" s="52"/>
-      <x:c r="E12" s="52"/>
-      <x:c r="F12" s="52"/>
-      <x:c r="G12" s="53"/>
+      <x:c r="C12" s="58"/>
+      <x:c r="D12" s="59"/>
+      <x:c r="E12" s="59"/>
+      <x:c r="F12" s="59"/>
+      <x:c r="G12" s="60"/>
       <x:c r="H12" s="10"/>
       <x:c r="I12" s="9"/>
       <x:c r="J12" s="10"/>
@@ -3601,11 +3478,11 @@
     </x:row>
     <x:row r="13" spans="2:14">
       <x:c r="B13" s="18"/>
-      <x:c r="C13" s="51"/>
-      <x:c r="D13" s="52"/>
-      <x:c r="E13" s="52"/>
-      <x:c r="F13" s="52"/>
-      <x:c r="G13" s="53"/>
+      <x:c r="C13" s="58"/>
+      <x:c r="D13" s="59"/>
+      <x:c r="E13" s="59"/>
+      <x:c r="F13" s="59"/>
+      <x:c r="G13" s="60"/>
       <x:c r="H13" s="10"/>
       <x:c r="I13" s="9"/>
       <x:c r="J13" s="10"/>
@@ -3616,11 +3493,11 @@
     </x:row>
     <x:row r="14" spans="2:14">
       <x:c r="B14" s="18"/>
-      <x:c r="C14" s="51"/>
-      <x:c r="D14" s="52"/>
-      <x:c r="E14" s="52"/>
-      <x:c r="F14" s="52"/>
-      <x:c r="G14" s="53"/>
+      <x:c r="C14" s="58"/>
+      <x:c r="D14" s="59"/>
+      <x:c r="E14" s="59"/>
+      <x:c r="F14" s="59"/>
+      <x:c r="G14" s="60"/>
       <x:c r="H14" s="10"/>
       <x:c r="I14" s="9"/>
       <x:c r="J14" s="10"/>
@@ -3631,11 +3508,11 @@
     </x:row>
     <x:row r="15" spans="2:14">
       <x:c r="B15" s="18"/>
-      <x:c r="C15" s="51"/>
-      <x:c r="D15" s="52"/>
-      <x:c r="E15" s="52"/>
-      <x:c r="F15" s="52"/>
-      <x:c r="G15" s="53"/>
+      <x:c r="C15" s="58"/>
+      <x:c r="D15" s="59"/>
+      <x:c r="E15" s="59"/>
+      <x:c r="F15" s="59"/>
+      <x:c r="G15" s="60"/>
       <x:c r="H15" s="10"/>
       <x:c r="I15" s="9"/>
       <x:c r="J15" s="10"/>
@@ -3646,11 +3523,11 @@
     </x:row>
     <x:row r="16" spans="2:14">
       <x:c r="B16" s="18"/>
-      <x:c r="C16" s="51"/>
-      <x:c r="D16" s="52"/>
-      <x:c r="E16" s="52"/>
-      <x:c r="F16" s="52"/>
-      <x:c r="G16" s="53"/>
+      <x:c r="C16" s="58"/>
+      <x:c r="D16" s="59"/>
+      <x:c r="E16" s="59"/>
+      <x:c r="F16" s="59"/>
+      <x:c r="G16" s="60"/>
       <x:c r="H16" s="10"/>
       <x:c r="I16" s="9"/>
       <x:c r="J16" s="10"/>
@@ -3661,11 +3538,11 @@
     </x:row>
     <x:row r="17" spans="2:14">
       <x:c r="B17" s="18"/>
-      <x:c r="C17" s="51"/>
-      <x:c r="D17" s="52"/>
-      <x:c r="E17" s="52"/>
-      <x:c r="F17" s="52"/>
-      <x:c r="G17" s="53"/>
+      <x:c r="C17" s="58"/>
+      <x:c r="D17" s="59"/>
+      <x:c r="E17" s="59"/>
+      <x:c r="F17" s="59"/>
+      <x:c r="G17" s="60"/>
       <x:c r="H17" s="10"/>
       <x:c r="I17" s="9"/>
       <x:c r="J17" s="10"/>
@@ -3676,11 +3553,11 @@
     </x:row>
     <x:row r="18" spans="2:14">
       <x:c r="B18" s="18"/>
-      <x:c r="C18" s="51"/>
-      <x:c r="D18" s="52"/>
-      <x:c r="E18" s="52"/>
-      <x:c r="F18" s="52"/>
-      <x:c r="G18" s="53"/>
+      <x:c r="C18" s="58"/>
+      <x:c r="D18" s="59"/>
+      <x:c r="E18" s="59"/>
+      <x:c r="F18" s="59"/>
+      <x:c r="G18" s="60"/>
       <x:c r="H18" s="10"/>
       <x:c r="I18" s="9"/>
       <x:c r="J18" s="10"/>
@@ -3691,11 +3568,11 @@
     </x:row>
     <x:row r="19" spans="2:14">
       <x:c r="B19" s="18"/>
-      <x:c r="C19" s="54"/>
-      <x:c r="D19" s="55"/>
-      <x:c r="E19" s="55"/>
-      <x:c r="F19" s="55"/>
-      <x:c r="G19" s="56"/>
+      <x:c r="C19" s="63"/>
+      <x:c r="D19" s="64"/>
+      <x:c r="E19" s="64"/>
+      <x:c r="F19" s="64"/>
+      <x:c r="G19" s="65"/>
       <x:c r="H19" s="10"/>
       <x:c r="I19" s="12"/>
       <x:c r="J19" s="13"/>
@@ -3707,7 +3584,7 @@
     <x:row r="20" spans="2:14">
       <x:c r="B20" s="18"/>
       <x:c r="C20" s="10" t="s">
-        <x:v>185</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D20" s="10"/>
       <x:c r="E20" s="10"/>
@@ -3752,7 +3629,7 @@
     </x:row>
     <x:row r="25" spans="2:2">
       <x:c r="B25" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3760,7 +3637,7 @@
     <x:mergeCell ref="C4:G19"/>
     <x:mergeCell ref="K9:L9"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:drawing r:id="rId1"/>
   <x:legacyDrawing r:id="rId2"/>
@@ -3776,7 +3653,7 @@
   <x:dimension ref="A2:F53"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="H1" activeCellId="0" sqref="H1:H1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -3790,633 +3667,633 @@
   <x:sheetData>
     <x:row r="2" spans="1:4" ht="23.5">
       <x:c r="A2" s="26" t="s">
-        <x:v>108</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B2" s="36" t="s">
-        <x:v>103</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C2" s="36"/>
-      <x:c r="D2" s="76" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="2:6" s="76" customFormat="1">
-      <x:c r="B3" s="77" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C3" s="68" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D3" s="69"/>
-      <x:c r="E3" s="68" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="F3" s="69"/>
-    </x:row>
-    <x:row r="4" spans="1:6" s="76" customFormat="1">
-      <x:c r="A4" s="76">
+      <x:c r="D2" s="48" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:6" s="48" customFormat="1">
+      <x:c r="B3" s="49" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C3" s="67" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D3" s="68"/>
+      <x:c r="E3" s="67" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="F3" s="68"/>
+    </x:row>
+    <x:row r="4" spans="1:6" s="48" customFormat="1">
+      <x:c r="A4" s="48">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B4" s="73" t="s">
+      <x:c r="B4" s="47" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C4" s="50" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D4" s="50" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E4" s="47" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="46" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" s="48" customFormat="1">
+      <x:c r="A5" s="48">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B5" s="47" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C5" s="69" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D5" s="70"/>
+      <x:c r="E5" s="71" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F5" s="72"/>
+    </x:row>
+    <x:row r="6" spans="1:6" s="48" customFormat="1">
+      <x:c r="A6" s="48">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="47" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C6" s="69" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D6" s="70"/>
+      <x:c r="E6" s="71" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F6" s="72"/>
+    </x:row>
+    <x:row r="7" spans="1:6" s="48" customFormat="1">
+      <x:c r="A7" s="48">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="47" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C7" s="69" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D7" s="70"/>
+      <x:c r="E7" s="71" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F7" s="72"/>
+    </x:row>
+    <x:row r="8" spans="1:6" s="48" customFormat="1">
+      <x:c r="A8" s="48">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="47" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C8" s="69" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D8" s="70"/>
+      <x:c r="E8" s="71" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F8" s="72" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" s="48" customFormat="1">
+      <x:c r="A9" s="48">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B9" s="47" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C9" s="69" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D9" s="70"/>
+      <x:c r="E9" s="71" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="C4" s="78" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="D4" s="78" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E4" s="73" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="F4" s="72" t="s">
-        <x:v>221</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" s="76" customFormat="1">
-      <x:c r="A5" s="76">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B5" s="73" t="s">
+      <x:c r="F9" s="72"/>
+    </x:row>
+    <x:row r="10" spans="1:6" s="48" customFormat="1">
+      <x:c r="A10" s="48">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="47" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="C5" s="70" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="D5" s="71"/>
-      <x:c r="E5" s="74" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="F5" s="75"/>
-    </x:row>
-    <x:row r="6" spans="1:6" s="76" customFormat="1">
-      <x:c r="A6" s="76">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="73" t="s">
+      <x:c r="C10" s="69" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D10" s="70"/>
+      <x:c r="E10" s="71" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="F10" s="72"/>
+    </x:row>
+    <x:row r="11" spans="1:6" s="48" customFormat="1">
+      <x:c r="A11" s="48">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="47" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C11" s="69" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D11" s="70"/>
+      <x:c r="E11" s="71" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="F11" s="72" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" s="48" customFormat="1">
+      <x:c r="A12" s="48">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B12" s="47" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C12" s="69" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D12" s="70"/>
+      <x:c r="E12" s="71" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="C6" s="70" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D6" s="71"/>
-      <x:c r="E6" s="74" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="F6" s="75"/>
-    </x:row>
-    <x:row r="7" spans="1:6" s="76" customFormat="1">
-      <x:c r="A7" s="76">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="73" t="s">
+      <x:c r="F12" s="72"/>
+    </x:row>
+    <x:row r="13" spans="1:6" s="48" customFormat="1">
+      <x:c r="A13" s="48">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B13" s="47" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C13" s="69" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D13" s="70"/>
+      <x:c r="E13" s="71" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F13" s="72" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" s="48" customFormat="1">
+      <x:c r="A14" s="48">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B14" s="47" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C14" s="69" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D14" s="70"/>
+      <x:c r="E14" s="71" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="C7" s="70" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="D7" s="71"/>
-      <x:c r="E7" s="74" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="F7" s="75"/>
-    </x:row>
-    <x:row r="8" spans="1:6" s="76" customFormat="1">
-      <x:c r="A8" s="76">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="73" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="C8" s="70" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D8" s="71"/>
-      <x:c r="E8" s="74" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="F8" s="75" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6" s="76" customFormat="1">
-      <x:c r="A9" s="76">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B9" s="73" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="C9" s="70" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="D9" s="71"/>
-      <x:c r="E9" s="74" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="F9" s="75"/>
-    </x:row>
-    <x:row r="10" spans="1:6" s="76" customFormat="1">
-      <x:c r="A10" s="76">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B10" s="73" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="C10" s="70" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="D10" s="71"/>
-      <x:c r="E10" s="74" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="F10" s="75"/>
-    </x:row>
-    <x:row r="11" spans="1:6" s="76" customFormat="1">
-      <x:c r="A11" s="76">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B11" s="73" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C11" s="70" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="D11" s="71"/>
-      <x:c r="E11" s="74" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F11" s="75" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6" s="76" customFormat="1">
-      <x:c r="A12" s="76">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B12" s="73" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="C12" s="70" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D12" s="71"/>
-      <x:c r="E12" s="74" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F12" s="75"/>
-    </x:row>
-    <x:row r="13" spans="1:6" s="76" customFormat="1">
-      <x:c r="A13" s="76">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B13" s="73" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C13" s="70" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="D13" s="71"/>
-      <x:c r="E13" s="74" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="F13" s="75" t="s">
-        <x:v>228</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6" s="76" customFormat="1">
-      <x:c r="A14" s="76">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B14" s="73" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="C14" s="70" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="D14" s="71"/>
-      <x:c r="E14" s="74" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="F14" s="75"/>
-    </x:row>
-    <x:row r="15" spans="1:6" s="76" customFormat="1">
-      <x:c r="A15" s="76">
+      <x:c r="F14" s="72"/>
+    </x:row>
+    <x:row r="15" spans="1:6" s="48" customFormat="1">
+      <x:c r="A15" s="48">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B15" s="73" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C15" s="70" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="D15" s="71"/>
-      <x:c r="E15" s="74" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="F15" s="75"/>
+      <x:c r="B15" s="47" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C15" s="69" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D15" s="70"/>
+      <x:c r="E15" s="71" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F15" s="72"/>
     </x:row>
     <x:row r="19" spans="1:4" ht="23.5">
       <x:c r="A19" s="26" t="s">
-        <x:v>120</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B19" s="36" t="s">
-        <x:v>177</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C19" s="36"/>
       <x:c r="D19" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:4" s="76" customFormat="1">
-      <x:c r="B20" s="77" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C20" s="77" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:4" s="48" customFormat="1">
+      <x:c r="B20" s="49" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C20" s="49" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D20" s="49" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4" s="48" customFormat="1">
+      <x:c r="A21" s="48">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B21" s="51" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C21" s="51" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D21" s="52" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4" s="48" customFormat="1">
+      <x:c r="A22" s="48">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B22" s="51" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C22" s="51" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D22" s="52" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4" s="48" customFormat="1">
+      <x:c r="A23" s="48">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B23" s="51" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C23" s="51" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D23" s="52" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4" s="48" customFormat="1">
+      <x:c r="A24" s="48">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B24" s="51" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C24" s="51" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D24" s="52" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4" s="48" customFormat="1">
+      <x:c r="A25" s="48">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B25" s="51" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C25" s="51" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D25" s="52" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4" s="48" customFormat="1">
+      <x:c r="A26" s="48">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B26" s="51" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C26" s="51" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D26" s="52" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4" s="48" customFormat="1">
+      <x:c r="A27" s="48">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B27" s="51" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C27" s="51" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D27" s="52" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4" s="48" customFormat="1">
+      <x:c r="A28" s="48">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B28" s="51" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C28" s="51" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D28" s="52" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4" s="48" customFormat="1">
+      <x:c r="A29" s="48">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B29" s="51" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C29" s="51" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D29" s="52" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4" s="48" customFormat="1">
+      <x:c r="A30" s="48">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B30" s="51" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="D20" s="77" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4" s="76" customFormat="1">
-      <x:c r="A21" s="76">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B21" s="79" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="C21" s="79" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="D21" s="80" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4" s="76" customFormat="1">
-      <x:c r="A22" s="76">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B22" s="79" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C22" s="79" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="80" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4" s="76" customFormat="1">
-      <x:c r="A23" s="76">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B23" s="79" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C23" s="79" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="D23" s="80" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4" s="76" customFormat="1">
-      <x:c r="A24" s="76">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B24" s="79" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C24" s="79" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D24" s="80" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4" s="76" customFormat="1">
-      <x:c r="A25" s="76">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B25" s="79" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="C25" s="79" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D25" s="80" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4" s="76" customFormat="1">
-      <x:c r="A26" s="76">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B26" s="79" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C26" s="79" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D26" s="80" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4" s="76" customFormat="1">
-      <x:c r="A27" s="76">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B27" s="79" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="C27" s="79" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="D27" s="80" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4" s="76" customFormat="1">
-      <x:c r="A28" s="76">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B28" s="79" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="C28" s="79" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D28" s="80" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4" s="76" customFormat="1">
-      <x:c r="A29" s="76">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B29" s="79" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="C29" s="79" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D29" s="80" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4" s="76" customFormat="1">
-      <x:c r="A30" s="76">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B30" s="79" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="C30" s="79" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D30" s="80" t="s">
-        <x:v>147</x:v>
+      <x:c r="C30" s="51" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D30" s="52" t="s">
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4" ht="23.5">
       <x:c r="A34" s="26" t="s">
-        <x:v>121</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B34" s="36" t="s">
-        <x:v>117</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C34" s="36"/>
       <x:c r="D34" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:3" ht="20.64999999999999857891">
       <x:c r="B35" s="35" t="s">
-        <x:v>118</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C35" s="35"/>
     </x:row>
-    <x:row r="36" spans="2:4" s="76" customFormat="1">
-      <x:c r="B36" s="77" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C36" s="77" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D36" s="77" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:4" s="76" customFormat="1">
-      <x:c r="A37" s="76">
+    <x:row r="36" spans="2:4" s="48" customFormat="1">
+      <x:c r="B36" s="49" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C36" s="49" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D36" s="49" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4" s="48" customFormat="1">
+      <x:c r="A37" s="48">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B37" s="79" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C37" s="79" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="D37" s="80" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:4" s="76" customFormat="1">
-      <x:c r="A38" s="76">
+      <x:c r="B37" s="51" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C37" s="51" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D37" s="52" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4" s="48" customFormat="1">
+      <x:c r="A38" s="48">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B38" s="79" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C38" s="79" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="D38" s="80" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:4" s="76" customFormat="1">
-      <x:c r="A39" s="76">
+      <x:c r="B38" s="51" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C38" s="51" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D38" s="52" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4" s="48" customFormat="1">
+      <x:c r="A39" s="48">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B39" s="79" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C39" s="79" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D39" s="80" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:4" s="76" customFormat="1">
-      <x:c r="A40" s="76">
+      <x:c r="B39" s="51" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C39" s="51" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D39" s="52" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4" s="48" customFormat="1">
+      <x:c r="A40" s="48">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B40" s="79" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="C40" s="79" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="D40" s="80" t="s">
+      <x:c r="B40" s="51" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C40" s="51" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D40" s="52" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4" s="48" customFormat="1">
+      <x:c r="A41" s="48">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B41" s="51" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C41" s="51" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D41" s="52" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4" s="48" customFormat="1">
+      <x:c r="A42" s="48">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:4" s="76" customFormat="1">
-      <x:c r="A41" s="76">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B41" s="79" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C41" s="79" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="D41" s="80" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:4" s="76" customFormat="1">
-      <x:c r="A42" s="76">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B42" s="79" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C42" s="79" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="D42" s="80" t="s">
+      <x:c r="B42" s="51" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C42" s="51" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D42" s="52" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4" s="48" customFormat="1">
+      <x:c r="A43" s="48">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B43" s="51" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C43" s="51" t="s">
         <x:v>203</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:4" s="76" customFormat="1">
-      <x:c r="A43" s="76">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B43" s="79" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="C43" s="79" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D43" s="80" t="s">
-        <x:v>133</x:v>
+      <x:c r="D43" s="52" t="s">
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="2:2" ht="20.64999999999999857891">
       <x:c r="B45" s="39" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="2:4" s="76" customFormat="1">
-      <x:c r="B46" s="77" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C46" s="77" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D46" s="77" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:4" s="76" customFormat="1">
-      <x:c r="A47" s="76">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="2:4" s="48" customFormat="1">
+      <x:c r="B46" s="49" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C46" s="49" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D46" s="49" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4" s="48" customFormat="1">
+      <x:c r="A47" s="48">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B47" s="79" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C47" s="79" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="D47" s="79" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:4" s="76" customFormat="1">
-      <x:c r="A48" s="76">
+      <x:c r="B47" s="51" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C47" s="51" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D47" s="51" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4" s="48" customFormat="1">
+      <x:c r="A48" s="48">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B48" s="79" t="s">
+      <x:c r="B48" s="51" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C48" s="51" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D48" s="51" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4" s="48" customFormat="1">
+      <x:c r="A49" s="48">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B49" s="51" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C49" s="51" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D49" s="51" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="C48" s="79" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="D48" s="79" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:4" s="76" customFormat="1">
-      <x:c r="A49" s="76">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B49" s="79" t="s">
+    </x:row>
+    <x:row r="50" spans="1:4" s="48" customFormat="1">
+      <x:c r="A50" s="48">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B50" s="51" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C50" s="51" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="D50" s="51" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4" s="48" customFormat="1">
+      <x:c r="A51" s="48">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B51" s="51" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C51" s="51" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D51" s="51" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4" s="48" customFormat="1">
+      <x:c r="A52" s="48">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B52" s="51" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="C49" s="79" t="s">
+      <x:c r="C52" s="51" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D52" s="51" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4" s="48" customFormat="1">
+      <x:c r="A53" s="48">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B53" s="51" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C53" s="51" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="D49" s="79" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:4" s="76" customFormat="1">
-      <x:c r="A50" s="76">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B50" s="79" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C50" s="79" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D50" s="79" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:4" s="76" customFormat="1">
-      <x:c r="A51" s="76">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B51" s="79" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C51" s="79" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="D51" s="79" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:4" s="76" customFormat="1">
-      <x:c r="A52" s="76">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B52" s="79" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="C52" s="79" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D52" s="79" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:4" s="76" customFormat="1">
-      <x:c r="A53" s="76">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B53" s="79" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C53" s="79" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="D53" s="79" t="s">
-        <x:v>138</x:v>
+      <x:c r="D53" s="51" t="s">
+        <x:v>158</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4446,7 +4323,7 @@
     <x:mergeCell ref="E15:F15"/>
     <x:mergeCell ref="E3:F3"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4457,7 +4334,7 @@
   <x:dimension ref="A1:F39"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="O18" activeCellId="0" sqref="O18:O18"/>
+      <x:selection activeCell="K1" activeCellId="0" sqref="K1:K1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -4470,590 +4347,590 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>115</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:2">
       <x:c r="B2" t="s">
-        <x:v>171</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:6">
       <x:c r="B3" s="37" t="s">
-        <x:v>94</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C3" s="37" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D3" s="59" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="E3" s="59"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D3" s="74" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="E3" s="74"/>
       <x:c r="F3" s="37" t="s">
-        <x:v>78</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:6">
-      <x:c r="B4" s="58" t="s">
-        <x:v>27</x:v>
+      <x:c r="B4" s="73" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C4" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D4" s="34" t="s">
-        <x:v>95</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F4" s="32" t="s">
-        <x:v>26</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:6">
-      <x:c r="B5" s="58"/>
+      <x:c r="B5" s="73"/>
       <x:c r="C5" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D5" s="34" t="s">
-        <x:v>79</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="32" t="s">
-        <x:v>28</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:6">
-      <x:c r="B6" s="58"/>
+      <x:c r="B6" s="73"/>
       <x:c r="C6" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D6" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F6" s="32" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:6">
-      <x:c r="B7" s="58"/>
+      <x:c r="B7" s="73"/>
       <x:c r="C7" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D7" s="34" t="s">
-        <x:v>75</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="32" t="s">
-        <x:v>181</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:6">
-      <x:c r="B8" s="58"/>
+      <x:c r="B8" s="73"/>
       <x:c r="C8" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D8" s="34" t="s">
-        <x:v>189</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="32" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:6">
-      <x:c r="B9" s="58"/>
+      <x:c r="B9" s="73"/>
       <x:c r="C9" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D9" s="34" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F9" s="32" t="s">
-        <x:v>44</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:6">
-      <x:c r="B10" s="58" t="s">
-        <x:v>39</x:v>
+      <x:c r="B10" s="73" t="s">
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C10" s="33">
         <x:v>0.5625</x:v>
       </x:c>
       <x:c r="D10" s="34" t="s">
-        <x:v>97</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F10" s="32" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:6">
-      <x:c r="B11" s="58"/>
+      <x:c r="B11" s="73"/>
       <x:c r="C11" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D11" s="34" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F11" s="32" t="s">
-        <x:v>34</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:6">
-      <x:c r="B12" s="58"/>
+      <x:c r="B12" s="73"/>
       <x:c r="C12" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D12" s="34" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F12" s="32" t="s">
-        <x:v>35</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:6">
-      <x:c r="B13" s="58"/>
+      <x:c r="B13" s="73"/>
       <x:c r="C13" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D13" s="34" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F13" s="32" t="s">
-        <x:v>30</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:6">
-      <x:c r="B14" s="58"/>
+      <x:c r="B14" s="73"/>
       <x:c r="C14" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D14" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F14" s="32" t="s">
-        <x:v>40</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:6">
-      <x:c r="B15" s="58"/>
+      <x:c r="B15" s="73"/>
       <x:c r="C15" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D15" s="34" t="s">
-        <x:v>75</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F15" s="32" t="s">
-        <x:v>181</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:6">
-      <x:c r="B16" s="58" t="s">
-        <x:v>36</x:v>
+      <x:c r="B16" s="73" t="s">
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C16" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D16" s="34" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F16" s="32" t="s">
-        <x:v>44</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:6">
-      <x:c r="B17" s="58"/>
+      <x:c r="B17" s="73"/>
       <x:c r="C17" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D17" s="34" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F17" s="32" t="s">
-        <x:v>41</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:6">
-      <x:c r="B18" s="58"/>
+      <x:c r="B18" s="73"/>
       <x:c r="C18" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D18" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F18" s="32" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:6">
-      <x:c r="B19" s="58" t="s">
-        <x:v>38</x:v>
+      <x:c r="B19" s="73" t="s">
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C19" s="33">
         <x:v>0.59722222222222221</x:v>
       </x:c>
       <x:c r="D19" s="34" t="s">
-        <x:v>189</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F19" s="32" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:6">
-      <x:c r="B20" s="58"/>
+      <x:c r="B20" s="73"/>
       <x:c r="C20" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D20" s="34" t="s">
-        <x:v>95</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F20" s="32" t="s">
-        <x:v>26</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:6">
-      <x:c r="B21" s="58"/>
+      <x:c r="B21" s="73"/>
       <x:c r="C21" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D21" s="34" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E21" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F21" s="32" t="s">
-        <x:v>30</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:6">
-      <x:c r="B22" s="58" t="s">
-        <x:v>43</x:v>
+      <x:c r="B22" s="73" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C22" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D22" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E22" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F22" s="32" t="s">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:6">
-      <x:c r="B23" s="58"/>
+      <x:c r="B23" s="73"/>
       <x:c r="C23" s="33">
         <x:v>0.8125</x:v>
       </x:c>
       <x:c r="D23" s="34" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E23" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F23" s="32" t="s">
-        <x:v>35</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:6">
-      <x:c r="B24" s="58" t="s">
-        <x:v>32</x:v>
+      <x:c r="B24" s="73" t="s">
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C24" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D24" s="34" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E24" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F24" s="32" t="s">
-        <x:v>41</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:6">
-      <x:c r="B25" s="58"/>
+      <x:c r="B25" s="73"/>
       <x:c r="C25" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D25" s="34" t="s">
-        <x:v>75</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E25" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F25" s="32" t="s">
-        <x:v>181</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:6">
-      <x:c r="B26" s="58"/>
+      <x:c r="B26" s="73"/>
       <x:c r="C26" s="33">
         <x:v>0.8125</x:v>
       </x:c>
       <x:c r="D26" s="34" t="s">
-        <x:v>79</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E26" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F26" s="32" t="s">
-        <x:v>28</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:6">
-      <x:c r="B27" s="58"/>
+      <x:c r="B27" s="73"/>
       <x:c r="C27" s="33">
         <x:v>0.8125</x:v>
       </x:c>
       <x:c r="D27" s="34" t="s">
-        <x:v>97</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E27" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F27" s="32" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:6">
-      <x:c r="B28" s="58" t="s">
-        <x:v>37</x:v>
+      <x:c r="B28" s="73" t="s">
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C28" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D28" s="34" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E28" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="32" t="s">
-        <x:v>30</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:6">
-      <x:c r="B29" s="58"/>
+      <x:c r="B29" s="73"/>
       <x:c r="C29" s="33">
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="D29" s="34" t="s">
-        <x:v>75</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E29" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F29" s="32" t="s">
-        <x:v>181</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:6">
-      <x:c r="B30" s="58"/>
+      <x:c r="B30" s="73"/>
       <x:c r="C30" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D30" s="34" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E30" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F30" s="32" t="s">
-        <x:v>44</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:6">
-      <x:c r="B31" s="58" t="s">
-        <x:v>42</x:v>
+      <x:c r="B31" s="73" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C31" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D31" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E31" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F31" s="32" t="s">
-        <x:v>40</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:6">
-      <x:c r="B32" s="58"/>
+      <x:c r="B32" s="73"/>
       <x:c r="C32" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D32" s="34" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E32" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F32" s="32" t="s">
-        <x:v>34</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:6">
-      <x:c r="B33" s="58"/>
+      <x:c r="B33" s="73"/>
       <x:c r="C33" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D33" s="34" t="s">
-        <x:v>189</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E33" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F33" s="32" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:6">
-      <x:c r="B34" s="58" t="s">
-        <x:v>31</x:v>
+      <x:c r="B34" s="73" t="s">
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C34" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D34" s="34" t="s">
-        <x:v>90</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E34" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F34" s="32" t="s">
-        <x:v>30</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:6">
-      <x:c r="B35" s="58"/>
+      <x:c r="B35" s="73"/>
       <x:c r="C35" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D35" s="34" t="s">
-        <x:v>95</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E35" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F35" s="32" t="s">
-        <x:v>26</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:6">
-      <x:c r="B36" s="58"/>
+      <x:c r="B36" s="73"/>
       <x:c r="C36" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D36" s="34" t="s">
-        <x:v>189</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E36" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F36" s="32" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:6">
-      <x:c r="B37" s="58" t="s">
-        <x:v>33</x:v>
+      <x:c r="B37" s="73" t="s">
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C37" s="33">
         <x:v>0.6875</x:v>
       </x:c>
       <x:c r="D37" s="34" t="s">
-        <x:v>81</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E37" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F37" s="32" t="s">
-        <x:v>35</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="2:6">
-      <x:c r="B38" s="58"/>
+      <x:c r="B38" s="73"/>
       <x:c r="C38" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D38" s="34" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E38" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F38" s="32" t="s">
-        <x:v>34</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:6">
-      <x:c r="B39" s="58"/>
+      <x:c r="B39" s="73"/>
       <x:c r="C39" s="33">
         <x:v>0.79166666666666663</x:v>
       </x:c>
       <x:c r="D39" s="34" t="s">
-        <x:v>97</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E39" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F39" s="32" t="s">
-        <x:v>29</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5070,7 +4947,7 @@
     <x:mergeCell ref="B19:B21"/>
     <x:mergeCell ref="B22:B23"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -5093,2030 +4970,2030 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>115</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:6">
       <x:c r="B2" s="37" t="s">
-        <x:v>94</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C2" s="37" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D2" s="59" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="E2" s="59"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D2" s="74" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="E2" s="74"/>
       <x:c r="F2" s="38" t="s">
-        <x:v>106</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:6">
-      <x:c r="B3" s="63" t="s">
-        <x:v>60</x:v>
+      <x:c r="B3" s="78" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C3" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:6">
-      <x:c r="B4" s="64"/>
+      <x:c r="B4" s="79"/>
       <x:c r="C4" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:6">
-      <x:c r="B5" s="64"/>
+      <x:c r="B5" s="79"/>
       <x:c r="C5" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:6">
-      <x:c r="B6" s="64"/>
+      <x:c r="B6" s="79"/>
       <x:c r="C6" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:6">
-      <x:c r="B7" s="65"/>
+      <x:c r="B7" s="80"/>
       <x:c r="C7" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:6">
-      <x:c r="B8" s="60" t="s">
-        <x:v>45</x:v>
+      <x:c r="B8" s="75" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C8" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:6">
-      <x:c r="B9" s="61"/>
+      <x:c r="B9" s="76"/>
       <x:c r="C9" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:6">
-      <x:c r="B10" s="61"/>
+      <x:c r="B10" s="76"/>
       <x:c r="C10" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:6">
-      <x:c r="B11" s="61"/>
+      <x:c r="B11" s="76"/>
       <x:c r="C11" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:6">
+      <x:c r="B12" s="77"/>
+      <x:c r="C12" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F12" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:6">
+      <x:c r="B13" s="75" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C13" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E13" s="3" t="s">
         <x:v>74</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="2:6">
-      <x:c r="B12" s="62"/>
-      <x:c r="C12" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F12" s="3" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:6">
-      <x:c r="B13" s="60" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C13" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D13" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E13" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:6">
-      <x:c r="B14" s="61"/>
+      <x:c r="B14" s="76"/>
       <x:c r="C14" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:6">
-      <x:c r="B15" s="61"/>
+      <x:c r="B15" s="76"/>
       <x:c r="C15" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:6">
-      <x:c r="B16" s="61"/>
+      <x:c r="B16" s="76"/>
       <x:c r="C16" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:6">
-      <x:c r="B17" s="62"/>
+      <x:c r="B17" s="77"/>
       <x:c r="C17" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:6">
-      <x:c r="B18" s="60" t="s">
-        <x:v>27</x:v>
+      <x:c r="B18" s="75" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C18" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:6">
-      <x:c r="B19" s="61"/>
+      <x:c r="B19" s="76"/>
       <x:c r="C19" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F19" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:6">
-      <x:c r="B20" s="61"/>
+      <x:c r="B20" s="76"/>
       <x:c r="C20" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:6">
-      <x:c r="B21" s="61"/>
+      <x:c r="B21" s="76"/>
       <x:c r="C21" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D21" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E21" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:6">
-      <x:c r="B22" s="62"/>
+      <x:c r="B22" s="77"/>
       <x:c r="C22" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E22" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F22" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:6">
-      <x:c r="B23" s="60" t="s">
+      <x:c r="B23" s="75" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C23" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D23" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E23" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F23" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:6">
+      <x:c r="B24" s="76"/>
+      <x:c r="C24" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D24" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E24" s="3" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C23" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D23" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E23" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F23" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="2:6">
-      <x:c r="B24" s="61"/>
-      <x:c r="C24" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D24" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E24" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
       <x:c r="F24" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:6">
-      <x:c r="B25" s="61"/>
+      <x:c r="B25" s="76"/>
       <x:c r="C25" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D25" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F25" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:6">
-      <x:c r="B26" s="61"/>
+      <x:c r="B26" s="76"/>
       <x:c r="C26" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E26" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F26" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:6">
-      <x:c r="B27" s="62"/>
+      <x:c r="B27" s="77"/>
       <x:c r="C27" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E27" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F27" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:6">
-      <x:c r="B28" s="60" t="s">
-        <x:v>47</x:v>
+      <x:c r="B28" s="75" t="s">
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C28" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E28" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F28" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:6">
-      <x:c r="B29" s="61"/>
+      <x:c r="B29" s="76"/>
       <x:c r="C29" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E29" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F29" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:6">
-      <x:c r="B30" s="61"/>
+      <x:c r="B30" s="76"/>
       <x:c r="C30" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D30" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E30" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F30" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:6">
-      <x:c r="B31" s="61"/>
+      <x:c r="B31" s="76"/>
       <x:c r="C31" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D31" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E31" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F31" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:6">
-      <x:c r="B32" s="62"/>
+      <x:c r="B32" s="77"/>
       <x:c r="C32" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D32" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E32" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F32" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:6">
-      <x:c r="B33" s="60" t="s">
-        <x:v>39</x:v>
+      <x:c r="B33" s="75" t="s">
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C33" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D33" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E33" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F33" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:6">
-      <x:c r="B34" s="61"/>
+      <x:c r="B34" s="76"/>
       <x:c r="C34" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D34" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E34" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F34" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:6">
-      <x:c r="B35" s="61"/>
+      <x:c r="B35" s="76"/>
       <x:c r="C35" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D35" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E35" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F35" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:6">
-      <x:c r="B36" s="61"/>
+      <x:c r="B36" s="76"/>
       <x:c r="C36" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D36" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E36" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F36" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:6">
-      <x:c r="B37" s="62"/>
+      <x:c r="B37" s="77"/>
       <x:c r="C37" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D37" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E37" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F37" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="2:6">
-      <x:c r="B38" s="60" t="s">
-        <x:v>59</x:v>
+      <x:c r="B38" s="75" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C38" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D38" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E38" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F38" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:6">
-      <x:c r="B39" s="61"/>
+      <x:c r="B39" s="76"/>
       <x:c r="C39" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D39" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E39" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F39" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:6">
-      <x:c r="B40" s="61"/>
+      <x:c r="B40" s="76"/>
       <x:c r="C40" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D40" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E40" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F40" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="2:6">
-      <x:c r="B41" s="61"/>
+      <x:c r="B41" s="76"/>
       <x:c r="C41" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D41" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E41" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F41" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:6">
-      <x:c r="B42" s="62"/>
+      <x:c r="B42" s="77"/>
       <x:c r="C42" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D42" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E42" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F42" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="2:6">
-      <x:c r="B43" s="60" t="s">
+      <x:c r="B43" s="75" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C43" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D43" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E43" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F43" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="2:6">
+      <x:c r="B44" s="76"/>
+      <x:c r="C44" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D44" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E44" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F44" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="2:6">
+      <x:c r="B45" s="76"/>
+      <x:c r="C45" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D45" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E45" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F45" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="2:6">
+      <x:c r="B46" s="76"/>
+      <x:c r="C46" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D46" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E46" s="3" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C43" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D43" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E43" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F43" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="2:6">
-      <x:c r="B44" s="61"/>
-      <x:c r="C44" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D44" s="3" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E44" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="F44" s="3" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="2:6">
-      <x:c r="B45" s="61"/>
-      <x:c r="C45" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D45" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E45" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F45" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="2:6">
-      <x:c r="B46" s="61"/>
-      <x:c r="C46" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D46" s="3" t="s">
+      <x:c r="F46" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="2:6">
+      <x:c r="B47" s="77"/>
+      <x:c r="C47" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D47" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E47" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F47" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="2:6">
+      <x:c r="B48" s="75" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C48" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D48" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E48" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F48" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="2:6">
+      <x:c r="B49" s="76"/>
+      <x:c r="C49" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D49" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E49" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F49" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="2:6">
+      <x:c r="B50" s="76"/>
+      <x:c r="C50" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D50" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E50" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F50" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="2:6">
+      <x:c r="B51" s="76"/>
+      <x:c r="C51" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D51" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E51" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F51" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="2:6">
+      <x:c r="B52" s="77"/>
+      <x:c r="C52" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D52" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E52" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F52" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="2:6">
+      <x:c r="B53" s="75" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C53" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D53" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E53" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F53" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="2:6">
+      <x:c r="B54" s="76"/>
+      <x:c r="C54" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D54" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E54" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F54" s="3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="2:7">
+      <x:c r="B55" s="76"/>
+      <x:c r="C55" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D55" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E55" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F55" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G55" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="2:6">
+      <x:c r="B56" s="76"/>
+      <x:c r="C56" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D56" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E56" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F56" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="2:6">
+      <x:c r="B57" s="77"/>
+      <x:c r="C57" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D57" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E57" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F57" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="2:6">
+      <x:c r="B58" s="75" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="E46" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F46" s="3" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="2:6">
-      <x:c r="B47" s="62"/>
-      <x:c r="C47" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D47" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E47" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F47" s="3" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="2:6">
-      <x:c r="B48" s="60" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C48" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D48" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E48" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F48" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="2:6">
-      <x:c r="B49" s="61"/>
-      <x:c r="C49" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D49" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E49" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="F49" s="3" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="2:6">
-      <x:c r="B50" s="61"/>
-      <x:c r="C50" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D50" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E50" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F50" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="2:6">
-      <x:c r="B51" s="61"/>
-      <x:c r="C51" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D51" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E51" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F51" s="3" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="2:6">
-      <x:c r="B52" s="62"/>
-      <x:c r="C52" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D52" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E52" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F52" s="3" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="2:6">
-      <x:c r="B53" s="60" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C53" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D53" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E53" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F53" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="2:6">
-      <x:c r="B54" s="61"/>
-      <x:c r="C54" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D54" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E54" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F54" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="2:7">
-      <x:c r="B55" s="61"/>
-      <x:c r="C55" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D55" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E55" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F55" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G55" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="2:6">
-      <x:c r="B56" s="61"/>
-      <x:c r="C56" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D56" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E56" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F56" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="2:6">
-      <x:c r="B57" s="62"/>
-      <x:c r="C57" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D57" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E57" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F57" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="2:6">
-      <x:c r="B58" s="60" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="C58" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D58" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E58" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F58" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="2:6">
-      <x:c r="B59" s="61"/>
+      <x:c r="B59" s="76"/>
       <x:c r="C59" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D59" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E59" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F59" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:6">
-      <x:c r="B60" s="61"/>
+      <x:c r="B60" s="76"/>
       <x:c r="C60" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D60" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E60" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F60" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="2:6">
-      <x:c r="B61" s="61"/>
+      <x:c r="B61" s="76"/>
       <x:c r="C61" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D61" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E61" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F61" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="2:6">
-      <x:c r="B62" s="62"/>
+      <x:c r="B62" s="77"/>
       <x:c r="C62" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D62" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E62" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F62" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="2:6">
-      <x:c r="B63" s="60" t="s">
-        <x:v>38</x:v>
+      <x:c r="B63" s="75" t="s">
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C63" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D63" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E63" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F63" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="2:6">
-      <x:c r="B64" s="61"/>
+      <x:c r="B64" s="76"/>
       <x:c r="C64" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D64" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E64" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F64" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="2:6">
-      <x:c r="B65" s="61"/>
+      <x:c r="B65" s="76"/>
       <x:c r="C65" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D65" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E65" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F65" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="2:6">
-      <x:c r="B66" s="61"/>
+      <x:c r="B66" s="76"/>
       <x:c r="C66" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D66" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E66" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F66" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="2:6">
-      <x:c r="B67" s="62"/>
+      <x:c r="B67" s="77"/>
       <x:c r="C67" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D67" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E67" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F67" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="2:6">
+      <x:c r="B68" s="75" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C68" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D68" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E68" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F68" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="2:6">
+      <x:c r="B69" s="76"/>
+      <x:c r="C69" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D69" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E69" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F69" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="2:6">
+      <x:c r="B70" s="76"/>
+      <x:c r="C70" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D70" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E70" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F70" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="2:6">
+      <x:c r="B71" s="76"/>
+      <x:c r="C71" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D71" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E71" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F71" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="2:6">
+      <x:c r="B72" s="77"/>
+      <x:c r="C72" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D72" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E72" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F72" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="2:6">
+      <x:c r="B73" s="75" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C73" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D73" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E73" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F73" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="2:6">
+      <x:c r="B74" s="76"/>
+      <x:c r="C74" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D74" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E74" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F74" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="2:6">
+      <x:c r="B75" s="76"/>
+      <x:c r="C75" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D75" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E75" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F75" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="2:6">
+      <x:c r="B76" s="76"/>
+      <x:c r="C76" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D76" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E76" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F76" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="2:6">
+      <x:c r="B77" s="77"/>
+      <x:c r="C77" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D77" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E77" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F77" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="2:6">
+      <x:c r="B78" s="75" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C78" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D78" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E78" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F78" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="2:6">
+      <x:c r="B79" s="76"/>
+      <x:c r="C79" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D79" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E79" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F79" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="2:6">
+      <x:c r="B80" s="76"/>
+      <x:c r="C80" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D80" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E80" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F80" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="2:6">
+      <x:c r="B81" s="76"/>
+      <x:c r="C81" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D81" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E81" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F81" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="2:6">
+      <x:c r="B82" s="77"/>
+      <x:c r="C82" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D82" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E82" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F82" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="2:6">
+      <x:c r="B83" s="75" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="F67" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="2:6">
-      <x:c r="B68" s="60" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C68" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D68" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E68" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F68" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="2:6">
-      <x:c r="B69" s="61"/>
-      <x:c r="C69" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D69" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E69" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="F69" s="3" t="s">
+      <x:c r="C83" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D83" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E83" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F83" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="2:6">
+      <x:c r="B84" s="76"/>
+      <x:c r="C84" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D84" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E84" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F84" s="3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="2:6">
+      <x:c r="B85" s="76"/>
+      <x:c r="C85" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D85" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E85" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F85" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="2:6">
+      <x:c r="B86" s="76"/>
+      <x:c r="C86" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D86" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E86" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F86" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="2:6">
+      <x:c r="B87" s="77"/>
+      <x:c r="C87" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D87" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E87" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F87" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="2:6">
+      <x:c r="B88" s="75" t="s">
         <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="2:6">
-      <x:c r="B70" s="61"/>
-      <x:c r="C70" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D70" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E70" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F70" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="2:6">
-      <x:c r="B71" s="61"/>
-      <x:c r="C71" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D71" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E71" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F71" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="2:6">
-      <x:c r="B72" s="62"/>
-      <x:c r="C72" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D72" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E72" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F72" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="2:6">
-      <x:c r="B73" s="60" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C73" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D73" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E73" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F73" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="2:6">
-      <x:c r="B74" s="61"/>
-      <x:c r="C74" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D74" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E74" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="F74" s="3" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="2:6">
-      <x:c r="B75" s="61"/>
-      <x:c r="C75" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D75" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E75" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F75" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="2:6">
-      <x:c r="B76" s="61"/>
-      <x:c r="C76" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D76" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E76" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F76" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="2:6">
-      <x:c r="B77" s="62"/>
-      <x:c r="C77" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D77" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E77" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F77" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="2:6">
-      <x:c r="B78" s="60" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C78" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D78" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E78" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F78" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="2:6">
-      <x:c r="B79" s="61"/>
-      <x:c r="C79" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D79" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E79" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="F79" s="3" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="2:6">
-      <x:c r="B80" s="61"/>
-      <x:c r="C80" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D80" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E80" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F80" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="2:6">
-      <x:c r="B81" s="61"/>
-      <x:c r="C81" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D81" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E81" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F81" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="2:6">
-      <x:c r="B82" s="62"/>
-      <x:c r="C82" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D82" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E82" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F82" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="2:6">
-      <x:c r="B83" s="60" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C83" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D83" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E83" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F83" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="2:6">
-      <x:c r="B84" s="61"/>
-      <x:c r="C84" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D84" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E84" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F84" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="2:6">
-      <x:c r="B85" s="61"/>
-      <x:c r="C85" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D85" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E85" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F85" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="2:6">
-      <x:c r="B86" s="61"/>
-      <x:c r="C86" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D86" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E86" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F86" s="3" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="2:6">
-      <x:c r="B87" s="62"/>
-      <x:c r="C87" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D87" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E87" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F87" s="3" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="2:6">
-      <x:c r="B88" s="60" t="s">
-        <x:v>37</x:v>
       </x:c>
       <x:c r="C88" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D88" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E88" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F88" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="2:6">
-      <x:c r="B89" s="61"/>
+      <x:c r="B89" s="76"/>
       <x:c r="C89" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D89" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E89" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F89" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="2:6">
-      <x:c r="B90" s="61"/>
+      <x:c r="B90" s="76"/>
       <x:c r="C90" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D90" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E90" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F90" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="2:6">
-      <x:c r="B91" s="61"/>
+      <x:c r="B91" s="76"/>
       <x:c r="C91" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D91" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E91" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F91" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="2:6">
-      <x:c r="B92" s="62"/>
+      <x:c r="B92" s="77"/>
       <x:c r="C92" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D92" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E92" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F92" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="2:6">
-      <x:c r="B93" s="60" t="s">
-        <x:v>42</x:v>
+      <x:c r="B93" s="75" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C93" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D93" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E93" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F93" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="2:6">
-      <x:c r="B94" s="61"/>
+      <x:c r="B94" s="76"/>
       <x:c r="C94" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D94" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E94" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F94" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="2:6">
-      <x:c r="B95" s="61"/>
+      <x:c r="B95" s="76"/>
       <x:c r="C95" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D95" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E95" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F95" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="2:6">
-      <x:c r="B96" s="61"/>
+      <x:c r="B96" s="76"/>
       <x:c r="C96" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D96" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E96" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F96" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="2:6">
-      <x:c r="B97" s="62"/>
+      <x:c r="B97" s="77"/>
       <x:c r="C97" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D97" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E97" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F97" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="2:6">
-      <x:c r="B98" s="60" t="s">
+      <x:c r="B98" s="75" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C98" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D98" s="3" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C98" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D98" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
       <x:c r="E98" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F98" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="2:6">
-      <x:c r="B99" s="61"/>
+      <x:c r="B99" s="76"/>
       <x:c r="C99" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D99" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E99" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F99" s="3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="2:6">
+      <x:c r="B100" s="76"/>
+      <x:c r="C100" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D100" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E100" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F100" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="2:6">
+      <x:c r="B101" s="76"/>
+      <x:c r="C101" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D101" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E101" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F101" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="2:6">
+      <x:c r="B102" s="77"/>
+      <x:c r="C102" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D102" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E102" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F102" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="2:6">
+      <x:c r="B103" s="75" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C103" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D103" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E103" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F103" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="2:6">
+      <x:c r="B104" s="76"/>
+      <x:c r="C104" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D104" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E104" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F104" s="3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="2:6">
+      <x:c r="B105" s="76"/>
+      <x:c r="C105" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D105" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E105" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F105" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="2:6">
+      <x:c r="B106" s="76"/>
+      <x:c r="C106" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D106" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E106" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F106" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="2:6">
+      <x:c r="B107" s="77"/>
+      <x:c r="C107" s="33">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="D107" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E107" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F107" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="2:6">
+      <x:c r="B108" s="75" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="F99" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="2:6">
-      <x:c r="B100" s="61"/>
-      <x:c r="C100" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D100" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E100" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F100" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="2:6">
-      <x:c r="B101" s="61"/>
-      <x:c r="C101" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D101" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E101" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F101" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="2:6">
-      <x:c r="B102" s="62"/>
-      <x:c r="C102" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D102" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E102" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F102" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="2:6">
-      <x:c r="B103" s="60" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C103" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D103" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E103" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F103" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="2:6">
-      <x:c r="B104" s="61"/>
-      <x:c r="C104" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D104" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E104" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F104" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="2:6">
-      <x:c r="B105" s="61"/>
-      <x:c r="C105" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D105" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E105" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F105" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="2:6">
-      <x:c r="B106" s="61"/>
-      <x:c r="C106" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D106" s="3" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E106" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F106" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="2:6">
-      <x:c r="B107" s="62"/>
-      <x:c r="C107" s="33">
-        <x:v>0.77083333333333337</x:v>
-      </x:c>
-      <x:c r="D107" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E107" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F107" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="2:6">
-      <x:c r="B108" s="60" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="C108" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D108" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E108" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F108" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="2:6">
-      <x:c r="B109" s="61"/>
+      <x:c r="B109" s="76"/>
       <x:c r="C109" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D109" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E109" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F109" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="2:6">
-      <x:c r="B110" s="61"/>
+      <x:c r="B110" s="76"/>
       <x:c r="C110" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D110" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E110" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F110" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="2:6">
-      <x:c r="B111" s="61"/>
+      <x:c r="B111" s="76"/>
       <x:c r="C111" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D111" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E111" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F111" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="2:6">
-      <x:c r="B112" s="62"/>
+      <x:c r="B112" s="77"/>
       <x:c r="C112" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D112" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E112" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F112" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="2:6">
-      <x:c r="B113" s="60" t="s">
-        <x:v>49</x:v>
+      <x:c r="B113" s="75" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C113" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D113" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E113" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F113" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="2:6">
-      <x:c r="B114" s="61"/>
+      <x:c r="B114" s="76"/>
       <x:c r="C114" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D114" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E114" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F114" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="2:6">
-      <x:c r="B115" s="61"/>
+      <x:c r="B115" s="76"/>
       <x:c r="C115" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D115" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E115" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F115" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="2:6">
-      <x:c r="B116" s="61"/>
+      <x:c r="B116" s="76"/>
       <x:c r="C116" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D116" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E116" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F116" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="2:6">
-      <x:c r="B117" s="62"/>
+      <x:c r="B117" s="77"/>
       <x:c r="C117" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D117" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E117" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F117" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="2:6">
-      <x:c r="B118" s="60" t="s">
-        <x:v>31</x:v>
+      <x:c r="B118" s="75" t="s">
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C118" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D118" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E118" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F118" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="2:6">
-      <x:c r="B119" s="61"/>
+      <x:c r="B119" s="76"/>
       <x:c r="C119" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D119" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E119" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F119" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:6">
-      <x:c r="B120" s="61"/>
+      <x:c r="B120" s="76"/>
       <x:c r="C120" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D120" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E120" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F120" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="2:6">
-      <x:c r="B121" s="61"/>
+      <x:c r="B121" s="76"/>
       <x:c r="C121" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D121" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E121" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F121" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="2:6">
-      <x:c r="B122" s="62"/>
+      <x:c r="B122" s="77"/>
       <x:c r="C122" s="33">
         <x:v>0.70833333333333337</x:v>
       </x:c>
       <x:c r="D122" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E122" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F122" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="2:6">
-      <x:c r="B123" s="60" t="s">
-        <x:v>33</x:v>
+      <x:c r="B123" s="75" t="s">
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C123" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D123" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E123" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F123" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="2:6">
-      <x:c r="B124" s="61"/>
+      <x:c r="B124" s="76"/>
       <x:c r="C124" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D124" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E124" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F124" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="2:6">
-      <x:c r="B125" s="61"/>
+      <x:c r="B125" s="76"/>
       <x:c r="C125" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D125" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E125" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F125" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="2:6">
-      <x:c r="B126" s="61"/>
+      <x:c r="B126" s="76"/>
       <x:c r="C126" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D126" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E126" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F126" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="2:6">
-      <x:c r="B127" s="62"/>
+      <x:c r="B127" s="77"/>
       <x:c r="C127" s="33">
         <x:v>0.58333333333333337</x:v>
       </x:c>
       <x:c r="D127" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E127" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F127" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="2:6">
-      <x:c r="B128" s="60" t="s">
-        <x:v>53</x:v>
+      <x:c r="B128" s="75" t="s">
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C128" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D128" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E128" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F128" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="2:6">
-      <x:c r="B129" s="61"/>
+      <x:c r="B129" s="76"/>
       <x:c r="C129" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D129" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E129" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F129" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="2:6">
-      <x:c r="B130" s="61"/>
+      <x:c r="B130" s="76"/>
       <x:c r="C130" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D130" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E130" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F130" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="2:6">
-      <x:c r="B131" s="61"/>
+      <x:c r="B131" s="76"/>
       <x:c r="C131" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D131" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E131" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F131" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="2:6">
-      <x:c r="B132" s="62"/>
+      <x:c r="B132" s="77"/>
       <x:c r="C132" s="33">
         <x:v>0.77083333333333337</x:v>
       </x:c>
       <x:c r="D132" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E132" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F132" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7149,7 +7026,7 @@
     <x:mergeCell ref="B18:B22"/>
     <x:mergeCell ref="B23:B27"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -7167,16 +7044,16 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:2">
       <x:c r="B3" t="s">
-        <x:v>0</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>